--- a/Assets/Data/Config/WholeConfig.xlsx
+++ b/Assets/Data/Config/WholeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWork\Repair_Station_No.1\Repair Station\Assets\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98CA4F6-C24B-4358-B93C-C174E323741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266CC2E3-36DC-4B33-88F5-D228791B65FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,46 @@
   </si>
   <si>
     <t>Prefab/Projectile/CannonBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harpoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Harpoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallCannonBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/SmallCannonBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishingNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/FishingNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torpedo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Torpedo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -405,6 +445,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/Config/WholeConfig.xlsx
+++ b/Assets/Data/Config/WholeConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWork\Repair_Station_No.1\Repair Station\Assets\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266CC2E3-36DC-4B33-88F5-D228791B65FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164BBE7-169A-456E-9170-635B72A3109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3030" yWindow="5325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,46 @@
   </si>
   <si>
     <t>Prefab/Projectile/Torpedo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splat_small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splat_big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Efx/explosion &amp; hit/efx water splat big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Efx/explosion &amp; hit/efx water splat small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Efx/attack &amp; cast/efx_cannon shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Efx/attack &amp; cast/efx_dragonStriker shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Efx/attack &amp; cast/efx_fishgig shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishgig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowlingWyvern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,16 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -485,6 +525,46 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
